--- a/Lab2_Project2_TTN.xlsx
+++ b/Lab2_Project2_TTN.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Form" sheetId="1" r:id="rId1"/>
+    <sheet name="DB" sheetId="4" r:id="rId2"/>
+    <sheet name="API" sheetId="2" r:id="rId3"/>
+    <sheet name="NV" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
   <si>
     <t>int</t>
   </si>
@@ -166,9 +167,6 @@
     <t>Ghi chú: List sẽ hiện danh sách theo St or Coach. Khi ta điền các thông tin vào các text box và search thì sẽ thống kê tìm kiếm theo những cái đó ở trong list</t>
   </si>
   <si>
-    <t>Đây là cơ sở dữ liệu gồm các bảng và các trường dữ liệu của nó</t>
-  </si>
-  <si>
     <t>Nếu bấm Back thì sẽ quay về menu đăng nhập</t>
   </si>
   <si>
@@ -307,9 +305,6 @@
     <t>Tìm kiếm giáo viên</t>
   </si>
   <si>
-    <t>Hiển thị danh sách lớp tương ứng với giáo viên giảng dạy và sĩ số lớp hiện tại</t>
-  </si>
-  <si>
     <t>UPDATE</t>
   </si>
   <si>
@@ -322,27 +317,12 @@
     <t>Giaovien.*(one record)</t>
   </si>
   <si>
-    <t>Lấy toàn bộ thông tin của giáo viên, thay phần mã lớp bằng tên lớp, tên lớp lấy ở bảng Lop</t>
-  </si>
-  <si>
-    <t>Trả về Giaovien.GiaovienID khi thêm mới thành công, hoặc -1 khi giaovienID đã tồn tại</t>
-  </si>
-  <si>
     <t>@giaovienid</t>
   </si>
   <si>
     <t>Trả về Giaovien.GiaovienID khi xóa thành công, hoặc -1 khi giaovienID không tồn tại</t>
   </si>
   <si>
-    <t>Giaovien, Lop</t>
-  </si>
-  <si>
-    <t>Trả về bảng có Tengiaovien, GiaovienID, Tenlop, Siso</t>
-  </si>
-  <si>
-    <t>Giaovien.GiaovienID=@giaovienid, Giaovien.Tengiaovien=@tengiaovien, Giaovien.Ngaysinh=@ngaysinh, Giaovien.Email=@email, Giaovien.Sodeinthoai=@sodienthoai, Lop.Tenlop=@tenlop</t>
-  </si>
-  <si>
     <t xml:space="preserve">@tensinhvien </t>
   </si>
   <si>
@@ -400,9 +380,6 @@
     <t>@sinhvienid</t>
   </si>
   <si>
-    <t>@giaovienid, @tengiaovien, @ngaysinh, @email, @sodienthoai, @tenlop</t>
-  </si>
-  <si>
     <t>Sinhvien.SinhvientID=@sinhvienid, Sinhvien.Tensinhvien=@tensinhvien, Sinhvien.Ngaysinh=@ngaysinh, Lop.Tenlop=@tenlop</t>
   </si>
   <si>
@@ -455,13 +432,61 @@
   </si>
   <si>
     <t xml:space="preserve">Merge </t>
+  </si>
+  <si>
+    <t>Giaovien_Lop</t>
+  </si>
+  <si>
+    <t>Giaovien_LopID</t>
+  </si>
+  <si>
+    <t>Chunhiem</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>Giaovien, Lop, Giaovien_Lop</t>
+  </si>
+  <si>
+    <t>Giaovien, Giaovien_Lop</t>
+  </si>
+  <si>
+    <t>@giaovienid, @tengiaovien, @ngaysinh, @email, @sodienthoai, @tenlop, @chunhiem</t>
+  </si>
+  <si>
+    <t>Giaovien.GiaovienID=@giaovienid, Giaovien.Tengiaovien=@tengiaovien, Giaovien.Ngaysinh=@ngaysinh, Giaovien.Email=@email, Giaovien.Sodeinthoai=@sodienthoai, Lop.Tenlop=@tenlop, Giaovien_Lop.Chunhiem=@chunhiem</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ thông tin của giáo viên</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách lớp tương ứng với giáo viên giảng dạy và sĩ số lớp hiện tại, chủ nhiệm</t>
+  </si>
+  <si>
+    <t>Trả về bảng có Tengiaovien, GiaovienID, Tenlop, Siso, Chunhiem</t>
+  </si>
+  <si>
+    <t>Trả về Giaovien.GiaovienID khi thêm mới thành công, hoặc -1 khi giaovienID đã tồn tại. Trả về Lop.LopID khi tồn tại @tenlop, -1 khi không tồn tại</t>
+  </si>
+  <si>
+    <t>insert giáo viên thành công thì insert luôn vào bảng Giaovien_Lop với GiaovienID và LopID tương ứng</t>
+  </si>
+  <si>
+    <t>cập nhật thay đổi như insert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +546,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -988,13 +1021,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1083,6 +1115,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1143,19 +1207,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1227,9 +1285,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1294,44 +1349,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,13 +1387,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1355,17 +1401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,1436 +1732,1373 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="121" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
-    </row>
-    <row r="3" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="124"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="126"/>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="99"/>
-      <c r="M4" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+    <row r="2" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="66"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="2"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="2"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="20" t="s">
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="2"/>
-      <c r="M16" s="57" t="s">
+      <c r="M16" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="59"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="2"/>
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="62"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="2"/>
-      <c r="M18" s="60" t="s">
+      <c r="M18" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="62"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="75"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="2"/>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="62"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="14"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="63" t="s">
+      <c r="M20" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="65"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="78"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="14"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="131" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="132"/>
+      <c r="H22" s="133"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="14"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="130" t="s">
+      <c r="E23" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="130"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="14"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="117" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="118"/>
+      <c r="H24" s="128"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="4"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="20" t="s">
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="2"/>
-      <c r="M36" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="50"/>
+      <c r="M36" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="63"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="14"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="2"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="53"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="66"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="114" t="s">
+      <c r="C38" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="114" t="s">
+      <c r="D38" s="125"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="14"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="2"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="53"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="66"/>
     </row>
     <row r="39" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="13"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="15"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="14"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="2"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="53"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="66"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
       <c r="K40" s="2"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="53"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="66"/>
     </row>
     <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
       <c r="K41" s="2"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="53"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="66"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="14"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="13"/>
       <c r="K42" s="2"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="53"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="66"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="115"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="14"/>
+      <c r="J43" s="13"/>
       <c r="K43" s="2"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="56"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="69"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="14"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="14"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="14"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="15"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="14"/>
+      <c r="J45" s="13"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="21" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="20" t="s">
         <v>20</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
       <c r="K48" s="4"/>
     </row>
     <row r="50" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="99"/>
+      <c r="C51" s="109"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="20" t="s">
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="81" t="s">
+      <c r="B54" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="82"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="98" t="s">
+      <c r="C54" s="93"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="113"/>
-      <c r="J54" s="99"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="109"/>
       <c r="K54" s="2"/>
-      <c r="M54" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="50"/>
+      <c r="M54" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="63"/>
     </row>
     <row r="55" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="85"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="104" t="s">
+      <c r="B55" s="96"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="106"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="116"/>
       <c r="K55" s="2"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="53"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="66"/>
     </row>
     <row r="56" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="109"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="119"/>
       <c r="K56" s="2"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="53"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="66"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="108"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="109"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="119"/>
       <c r="K57" s="2"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="53"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="66"/>
     </row>
     <row r="58" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="85"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="109"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="119"/>
       <c r="K58" s="2"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="56"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="69"/>
     </row>
     <row r="59" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="109"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="119"/>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="109"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="119"/>
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="85"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="108"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="109"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="119"/>
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="109"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="118"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="119"/>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="111"/>
-      <c r="J63" s="112"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="121"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="122"/>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="24" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="25">
+      <c r="J64" s="24">
         <v>10</v>
       </c>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
       <c r="K65" s="4"/>
     </row>
     <row r="68" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="98" t="s">
+      <c r="B69" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="99"/>
+      <c r="C69" s="109"/>
     </row>
     <row r="70" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="97"/>
-      <c r="K70" s="20" t="s">
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
       <c r="K71" s="2"/>
-      <c r="M71" s="48" t="s">
+      <c r="M71" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="50"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="63"/>
     </row>
     <row r="72" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="81" t="s">
+      <c r="B72" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="98" t="s">
+      <c r="C72" s="93"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="100"/>
-      <c r="G72" s="27" t="s">
+      <c r="F72" s="110"/>
+      <c r="G72" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H72" s="101" t="s">
+      <c r="H72" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="I72" s="102"/>
-      <c r="J72" s="26" t="s">
+      <c r="I72" s="112"/>
+      <c r="J72" s="25" t="s">
         <v>33</v>
       </c>
       <c r="K72" s="2"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="53"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="65"/>
+      <c r="O72" s="65"/>
+      <c r="P72" s="65"/>
+      <c r="Q72" s="66"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="83"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="69"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="81"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="53"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="65"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="65"/>
+      <c r="Q73" s="66"/>
     </row>
     <row r="74" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="85"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="71"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="82"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="M74" s="51"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="53"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="66"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="71"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="82"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="53"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="65"/>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="66"/>
     </row>
     <row r="76" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="71"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="82"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="53"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="66"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B77" s="81" t="s">
+      <c r="B77" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="71"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="82"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="53"/>
+      <c r="M77" s="64"/>
+      <c r="N77" s="65"/>
+      <c r="O77" s="65"/>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="66"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B78" s="83"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="71"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="82"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="56"/>
+      <c r="M78" s="67"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="69"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="83"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="96"/>
-      <c r="I79" s="71"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="82"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="85"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="96"/>
-      <c r="I80" s="71"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="82"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="67"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="80"/>
       <c r="J81" s="4"/>
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="3"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
       <c r="K83" s="4"/>
     </row>
     <row r="86" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="73" t="s">
+      <c r="B88" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="74"/>
-      <c r="J88" s="74"/>
-      <c r="K88" s="20" t="s">
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
       <c r="K89" s="2"/>
-      <c r="M89" s="48" t="s">
+      <c r="M89" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="N89" s="49"/>
-      <c r="O89" s="49"/>
-      <c r="P89" s="49"/>
-      <c r="Q89" s="50"/>
+      <c r="N89" s="62"/>
+      <c r="O89" s="62"/>
+      <c r="P89" s="62"/>
+      <c r="Q89" s="63"/>
     </row>
     <row r="90" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
       <c r="K90" s="2"/>
-      <c r="M90" s="51"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="53"/>
+      <c r="M90" s="64"/>
+      <c r="N90" s="65"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65"/>
+      <c r="Q90" s="66"/>
     </row>
     <row r="91" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="32" t="s">
+      <c r="C91" s="87"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G91" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H91" s="27" t="s">
+      <c r="H91" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I91" s="94" t="s">
+      <c r="I91" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="J91" s="95"/>
+      <c r="J91" s="106"/>
       <c r="K91" s="2"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="53"/>
+      <c r="M91" s="64"/>
+      <c r="N91" s="65"/>
+      <c r="O91" s="65"/>
+      <c r="P91" s="65"/>
+      <c r="Q91" s="66"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="77"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="87" t="s">
+      <c r="B92" s="88"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="88"/>
-      <c r="G92" s="88"/>
-      <c r="H92" s="88"/>
-      <c r="I92" s="88"/>
-      <c r="J92" s="89"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99"/>
+      <c r="I92" s="99"/>
+      <c r="J92" s="100"/>
       <c r="K92" s="2"/>
-      <c r="M92" s="51"/>
-      <c r="N92" s="52"/>
-      <c r="O92" s="52"/>
-      <c r="P92" s="52"/>
-      <c r="Q92" s="53"/>
+      <c r="M92" s="64"/>
+      <c r="N92" s="65"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="66"/>
     </row>
     <row r="93" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="79"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="88"/>
-      <c r="H93" s="88"/>
-      <c r="I93" s="88"/>
-      <c r="J93" s="89"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="99"/>
+      <c r="J93" s="100"/>
       <c r="K93" s="2"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="52"/>
-      <c r="O93" s="52"/>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="53"/>
+      <c r="M93" s="64"/>
+      <c r="N93" s="65"/>
+      <c r="O93" s="65"/>
+      <c r="P93" s="65"/>
+      <c r="Q93" s="66"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="88"/>
-      <c r="H94" s="88"/>
-      <c r="I94" s="88"/>
-      <c r="J94" s="89"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="99"/>
+      <c r="I94" s="99"/>
+      <c r="J94" s="100"/>
       <c r="K94" s="2"/>
-      <c r="M94" s="51"/>
-      <c r="N94" s="52"/>
-      <c r="O94" s="52"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="53"/>
+      <c r="M94" s="64"/>
+      <c r="N94" s="65"/>
+      <c r="O94" s="65"/>
+      <c r="P94" s="65"/>
+      <c r="Q94" s="66"/>
     </row>
     <row r="95" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="30"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="90"/>
-      <c r="F95" s="88"/>
-      <c r="G95" s="88"/>
-      <c r="H95" s="88"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="89"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="101"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="100"/>
       <c r="K95" s="2"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="52"/>
-      <c r="O95" s="52"/>
-      <c r="P95" s="52"/>
-      <c r="Q95" s="53"/>
+      <c r="M95" s="64"/>
+      <c r="N95" s="65"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="66"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="81" t="s">
+      <c r="B96" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="88"/>
-      <c r="I96" s="88"/>
-      <c r="J96" s="89"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
+      <c r="H96" s="99"/>
+      <c r="I96" s="99"/>
+      <c r="J96" s="100"/>
       <c r="K96" s="2"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="52"/>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="53"/>
+      <c r="M96" s="64"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="66"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="83"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88"/>
-      <c r="I97" s="88"/>
-      <c r="J97" s="89"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="100"/>
       <c r="K97" s="2"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="52"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="53"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="65"/>
+      <c r="O97" s="65"/>
+      <c r="P97" s="65"/>
+      <c r="Q97" s="66"/>
     </row>
     <row r="98" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="85"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="88"/>
-      <c r="G98" s="88"/>
-      <c r="H98" s="88"/>
-      <c r="I98" s="88"/>
-      <c r="J98" s="89"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
+      <c r="H98" s="99"/>
+      <c r="I98" s="99"/>
+      <c r="J98" s="100"/>
       <c r="K98" s="2"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="56"/>
+      <c r="M98" s="67"/>
+      <c r="N98" s="68"/>
+      <c r="O98" s="68"/>
+      <c r="P98" s="68"/>
+      <c r="Q98" s="69"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="88"/>
-      <c r="H99" s="88"/>
-      <c r="I99" s="88"/>
-      <c r="J99" s="89"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="99"/>
+      <c r="J99" s="100"/>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="91"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
-      <c r="J100" s="93"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="103"/>
+      <c r="H100" s="103"/>
+      <c r="I100" s="103"/>
+      <c r="J100" s="104"/>
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
       <c r="K102" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="59">
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
@@ -3159,21 +3131,17 @@
     <mergeCell ref="B96:C98"/>
     <mergeCell ref="E92:J100"/>
     <mergeCell ref="I91:J91"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H75:I75"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="E81:F81"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="B2:K12"/>
     <mergeCell ref="M89:Q98"/>
     <mergeCell ref="M4:Q9"/>
     <mergeCell ref="M36:Q43"/>
@@ -3184,6 +3152,11 @@
     <mergeCell ref="M18:Q18"/>
     <mergeCell ref="M19:Q19"/>
     <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3192,19 +3165,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="D3:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:13" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D4" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="136"/>
+    </row>
+    <row r="5" spans="4:13" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+    </row>
+    <row r="6" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="139"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="139"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="139"/>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="139"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H16" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="33" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" customWidth="1"/>
@@ -3214,936 +3441,940 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="135"/>
+      <c r="C1" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:11" s="32" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="G3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="I3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>2</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>3</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
         <v>4</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
-        <v>1</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
-        <v>2</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="B15" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="42"/>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
-        <v>3</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="42"/>
-    </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="42"/>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="42"/>
-    </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="42"/>
-    </row>
-    <row r="15" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
-        <v>4</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="47"/>
+      <c r="G15" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4154,12 +4385,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,7 +4398,7 @@
     <row r="1" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="143" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E2" s="144"/>
       <c r="F2" s="144"/>
@@ -4176,95 +4407,95 @@
     </row>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="147"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="141" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="130" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="136"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="141" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="130" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="136"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="141" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="136"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="141" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="136"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="141" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="136"/>
-    </row>
-    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="142" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="138"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
